--- a/data_year/zb/批发和零售业/限额以上零售业企业资产及负债/按登记注册类型分限额以上零售业企业所有者权益.xlsx
+++ b/data_year/zb/批发和零售业/限额以上零售业企业资产及负债/按登记注册类型分限额以上零售业企业所有者权益.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,1860 +598,1231 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.383</v>
+        <v>33.7</v>
       </c>
       <c r="C2" t="n">
-        <v>45.0695</v>
+        <v>185.3</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>220.8988</v>
+        <v>1716.3</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>3.7195</v>
+        <v>5.2</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1565</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>1185.4166</v>
+        <v>6006.9</v>
       </c>
       <c r="J2" t="n">
-        <v>8.239599999999999</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>16.8016</v>
+        <v>82.2</v>
       </c>
       <c r="L2" t="n">
-        <v>28.8307</v>
+        <v>11.7</v>
       </c>
       <c r="M2" t="n">
-        <v>225.3744</v>
+        <v>553.8</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0134</v>
+        <v>42.1</v>
       </c>
       <c r="O2" t="n">
-        <v>64.6049</v>
+        <v>508.4</v>
       </c>
       <c r="P2" t="n">
-        <v>1.1658</v>
+        <v>247.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>237.7003</v>
+        <v>1798.4</v>
       </c>
       <c r="R2" t="n">
-        <v>2.4747</v>
+        <v>24.1</v>
       </c>
       <c r="S2" t="n">
-        <v>29.4796</v>
+        <v>159.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.806</v>
+        <v>22.9</v>
       </c>
       <c r="U2" t="n">
-        <v>34.4439</v>
+        <v>419.8</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6836</v>
+        <v>213</v>
       </c>
       <c r="W2" t="n">
-        <v>1.5168</v>
+        <v>42</v>
       </c>
       <c r="X2" t="n">
-        <v>90.508</v>
+        <v>1384.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.22</v>
+        <v>261.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.2324</v>
+        <v>137.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.4771</v>
+        <v>1826.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>40.3687</v>
+        <v>24.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>24.4405</v>
+        <v>42.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>487.4421</v>
+        <v>1610.8</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.4212</v>
+        <v>3.1</v>
       </c>
       <c r="AF2" t="n">
-        <v>63.4569</v>
+        <v>106.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>1284.4654</v>
+        <v>6935.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.68505</v>
+        <v>46.8468</v>
       </c>
       <c r="C3" t="n">
-        <v>59.78727</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>214.5273</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.333</v>
+      </c>
       <c r="E3" t="n">
-        <v>301.53616</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>2345.6821</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50.4881</v>
+      </c>
       <c r="G3" t="n">
-        <v>4.00155</v>
+        <v>5.3844</v>
       </c>
       <c r="H3" t="n">
-        <v>1.48657</v>
+        <v>130.9644</v>
       </c>
       <c r="I3" t="n">
-        <v>1370.01577</v>
+        <v>7653.0284</v>
       </c>
       <c r="J3" t="n">
-        <v>8.27092</v>
+        <v>2.6661</v>
       </c>
       <c r="K3" t="n">
-        <v>16.06959</v>
+        <v>87.99339999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>5.96899</v>
+        <v>10.511</v>
       </c>
       <c r="M3" t="n">
-        <v>252.55216</v>
+        <v>773.0386999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.05747</v>
+        <v>11.9571</v>
       </c>
       <c r="O3" t="n">
-        <v>77.93810999999999</v>
+        <v>625.6038</v>
       </c>
       <c r="P3" t="n">
-        <v>6.52326</v>
+        <v>352.6056</v>
       </c>
       <c r="Q3" t="n">
-        <v>317.60575</v>
+        <v>2433.6755</v>
       </c>
       <c r="R3" t="n">
-        <v>3.66318</v>
+        <v>22.8932</v>
       </c>
       <c r="S3" t="n">
-        <v>28.23012</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
+        <v>208.0936</v>
+      </c>
+      <c r="T3" t="n">
+        <v>11.1378</v>
+      </c>
       <c r="U3" t="n">
-        <v>37.69832</v>
+        <v>627.6591</v>
       </c>
       <c r="V3" t="n">
-        <v>5.85056</v>
+        <v>335.0464</v>
       </c>
       <c r="W3" t="n">
-        <v>3.68159</v>
+        <v>37.8255</v>
       </c>
       <c r="X3" t="n">
-        <v>138.72516</v>
+        <v>1701.7439</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.46604</v>
+        <v>257.3257</v>
       </c>
       <c r="Z3" t="n">
-        <v>11.68451</v>
+        <v>139.5773</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.5573</v>
+        <v>2136.4724</v>
       </c>
       <c r="AB3" t="n">
-        <v>18.9848</v>
+        <v>21.3594</v>
       </c>
       <c r="AC3" t="n">
-        <v>25.76369</v>
+        <v>66.34350000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>532.71469</v>
+        <v>1981.2465</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.74334</v>
+        <v>2.7979</v>
       </c>
       <c r="AF3" t="n">
-        <v>57.35081</v>
+        <v>109.928</v>
       </c>
       <c r="AG3" t="n">
-        <v>1485.64457</v>
+        <v>8906.2912</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>27.82915</v>
+      </c>
+      <c r="C4" t="n">
+        <v>220.25528</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.61365</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2780.09837</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50.29731</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.25749</v>
+      </c>
+      <c r="H4" t="n">
+        <v>224.06784</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9136.859200000001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.87622</v>
+      </c>
+      <c r="K4" t="n">
+        <v>102.84953</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10.76759</v>
+      </c>
+      <c r="M4" t="n">
+        <v>809.08084</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9.23265</v>
+      </c>
+      <c r="O4" t="n">
+        <v>630.36046</v>
+      </c>
+      <c r="P4" t="n">
+        <v>369.42973</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2882.9479</v>
+      </c>
+      <c r="R4" t="n">
+        <v>84.4062</v>
+      </c>
+      <c r="S4" t="n">
+        <v>251.70782</v>
+      </c>
+      <c r="T4" t="n">
+        <v>24.7687</v>
+      </c>
+      <c r="U4" t="n">
+        <v>844.0393</v>
+      </c>
+      <c r="V4" t="n">
+        <v>432.85927</v>
+      </c>
+      <c r="W4" t="n">
+        <v>43.35925</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2117.94596</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>415.49964</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>306.58081</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2883.38566</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>23.89277</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>60.29935</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2122.52726</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2.99147</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>130.65758</v>
+      </c>
       <c r="AG4" t="n">
-        <v>2156.00786</v>
+        <v>10611.25896</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.44622</v>
+        <v>27.96747</v>
       </c>
       <c r="C5" t="n">
-        <v>88.11102</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>258.53445</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.38327</v>
+      </c>
       <c r="E5" t="n">
-        <v>513.2811400000001</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>3710.47413</v>
+      </c>
+      <c r="F5" t="n">
+        <v>55.04599</v>
+      </c>
       <c r="G5" t="n">
-        <v>4.51517</v>
+        <v>1.90075</v>
       </c>
       <c r="H5" t="n">
-        <v>5.33154</v>
+        <v>90.38718</v>
       </c>
       <c r="I5" t="n">
-        <v>2081.22165</v>
+        <v>10741.29947</v>
       </c>
       <c r="J5" t="n">
-        <v>9.09769</v>
+        <v>3.17645</v>
       </c>
       <c r="K5" t="n">
-        <v>50.82413</v>
+        <v>275.9152</v>
       </c>
       <c r="L5" t="n">
-        <v>5.79016</v>
+        <v>1.83831</v>
       </c>
       <c r="M5" t="n">
-        <v>208.47126</v>
+        <v>351.331</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3326</v>
+        <v>25.0248</v>
       </c>
       <c r="O5" t="n">
-        <v>121.36497</v>
+        <v>740.20546</v>
       </c>
       <c r="P5" t="n">
-        <v>17.47513</v>
+        <v>426.29547</v>
       </c>
       <c r="Q5" t="n">
-        <v>564.10527</v>
+        <v>3986.38933</v>
       </c>
       <c r="R5" t="n">
-        <v>8.54017</v>
+        <v>19.88978</v>
       </c>
       <c r="S5" t="n">
-        <v>67.87587000000001</v>
+        <v>285.0271</v>
       </c>
       <c r="T5" t="n">
-        <v>0.73321</v>
+        <v>63.90891</v>
       </c>
       <c r="U5" t="n">
-        <v>79.74981</v>
+        <v>960.47963</v>
       </c>
       <c r="V5" t="n">
-        <v>2.60056</v>
+        <v>536.60785</v>
       </c>
       <c r="W5" t="n">
-        <v>11.93545</v>
+        <v>19.13074</v>
       </c>
       <c r="X5" t="n">
-        <v>382.33326</v>
+        <v>3041.25946</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.61523</v>
+        <v>186.49449</v>
       </c>
       <c r="Z5" t="n">
-        <v>36.8242</v>
+        <v>243.85207</v>
       </c>
       <c r="AA5" t="n">
-        <v>453.70804</v>
+        <v>3490.73676</v>
       </c>
       <c r="AB5" t="n">
-        <v>21.02675</v>
+        <v>10.05606</v>
       </c>
       <c r="AC5" t="n">
-        <v>20.35802</v>
+        <v>19.11654</v>
       </c>
       <c r="AD5" t="n">
-        <v>755.54146</v>
+        <v>2672.13249</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.62373</v>
+        <v>3.14055</v>
       </c>
       <c r="AF5" t="n">
-        <v>52.67931</v>
+        <v>121.15011</v>
       </c>
       <c r="AG5" t="n">
-        <v>2282.3</v>
+        <v>12441.9846</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.4987</v>
+        <v>24.13145</v>
       </c>
       <c r="C6" t="n">
-        <v>94.97580000000001</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>278.67935</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.83484</v>
+      </c>
       <c r="E6" t="n">
-        <v>587.0681</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>4968.91022</v>
+      </c>
+      <c r="F6" t="n">
+        <v>43.86674</v>
+      </c>
       <c r="G6" t="n">
-        <v>1.2698</v>
+        <v>1.31412</v>
       </c>
       <c r="H6" t="n">
-        <v>9.099500000000001</v>
+        <v>82.61239</v>
       </c>
       <c r="I6" t="n">
-        <v>2429.9727</v>
+        <v>12636.0232</v>
       </c>
       <c r="J6" t="n">
-        <v>9.983599999999999</v>
+        <v>3.54033</v>
       </c>
       <c r="K6" t="n">
-        <v>73.1939</v>
+        <v>329.94358</v>
       </c>
       <c r="L6" t="n">
-        <v>9.811</v>
+        <v>0.87984</v>
       </c>
       <c r="M6" t="n">
-        <v>245.7628</v>
+        <v>399.65908</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7078</v>
+        <v>24.17349</v>
       </c>
       <c r="O6" t="n">
-        <v>142.1662</v>
+        <v>832.05893</v>
       </c>
       <c r="P6" t="n">
-        <v>35.9839</v>
+        <v>502.2398</v>
       </c>
       <c r="Q6" t="n">
-        <v>660.2619999999999</v>
+        <v>5298.8538</v>
       </c>
       <c r="R6" t="n">
-        <v>9.039899999999999</v>
+        <v>23.01403</v>
       </c>
       <c r="S6" t="n">
-        <v>81.602</v>
+        <v>353.20005</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1947</v>
+        <v>54.17114</v>
       </c>
       <c r="U6" t="n">
-        <v>114.9472</v>
+        <v>1082.40733</v>
       </c>
       <c r="V6" t="n">
-        <v>24.1107</v>
+        <v>608.1553699999999</v>
       </c>
       <c r="W6" t="n">
-        <v>5.7594</v>
+        <v>19.84065</v>
       </c>
       <c r="X6" t="n">
-        <v>486.8528</v>
+        <v>3415.57854</v>
       </c>
       <c r="Y6" t="n">
-        <v>31.6351</v>
+        <v>200.37528</v>
       </c>
       <c r="Z6" t="n">
-        <v>47.4604</v>
+        <v>242.90117</v>
       </c>
       <c r="AA6" t="n">
-        <v>571.7077</v>
+        <v>3878.69564</v>
       </c>
       <c r="AB6" t="n">
-        <v>23.6102</v>
+        <v>8.696949999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>20.5731</v>
+        <v>20.17408</v>
       </c>
       <c r="AD6" t="n">
-        <v>844.1722</v>
+        <v>2820.86709</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.5459</v>
+        <v>2.96266</v>
       </c>
       <c r="AF6" t="n">
-        <v>54.7853</v>
+        <v>126.46417</v>
       </c>
       <c r="AG6" t="n">
-        <v>2687.1</v>
+        <v>14550.4895</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.90833</v>
+        <v>19.9745</v>
       </c>
       <c r="C7" t="n">
-        <v>129.20342</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>322.6129</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.6102</v>
+      </c>
       <c r="E7" t="n">
-        <v>757.96872</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+        <v>4897.0131</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.8124</v>
+      </c>
       <c r="G7" t="n">
-        <v>2.46397</v>
+        <v>1.9458</v>
       </c>
       <c r="H7" t="n">
-        <v>23.26966</v>
+        <v>89.2256</v>
       </c>
       <c r="I7" t="n">
-        <v>2793.94737</v>
+        <v>13307.8406</v>
       </c>
       <c r="J7" t="n">
-        <v>10.47695</v>
+        <v>3.4861</v>
       </c>
       <c r="K7" t="n">
-        <v>53.29664</v>
+        <v>339.7987</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75684</v>
+        <v>0.7014</v>
       </c>
       <c r="M7" t="n">
-        <v>221.04269</v>
+        <v>348.2802</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.05202</v>
+        <v>22.5505</v>
       </c>
       <c r="O7" t="n">
-        <v>195.65554</v>
+        <v>894.0235</v>
       </c>
       <c r="P7" t="n">
-        <v>56.59581</v>
+        <v>516.2751</v>
       </c>
       <c r="Q7" t="n">
-        <v>811.26536</v>
+        <v>5236.812</v>
       </c>
       <c r="R7" t="n">
-        <v>10.74095</v>
+        <v>14.8386</v>
       </c>
       <c r="S7" t="n">
-        <v>88.50837</v>
+        <v>413.1558</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.85279</v>
+        <v>71.4658</v>
       </c>
       <c r="U7" t="n">
-        <v>152.17043</v>
+        <v>1120.3326</v>
       </c>
       <c r="V7" t="n">
-        <v>53.7739</v>
+        <v>618.0599999999999</v>
       </c>
       <c r="W7" t="n">
-        <v>10.60442</v>
+        <v>21.0554</v>
       </c>
       <c r="X7" t="n">
-        <v>595.4772400000001</v>
+        <v>3664.8972</v>
       </c>
       <c r="Y7" t="n">
-        <v>54.11564</v>
+        <v>228.8588</v>
       </c>
       <c r="Z7" t="n">
-        <v>49.31604</v>
+        <v>234.4238</v>
       </c>
       <c r="AA7" t="n">
-        <v>709.51334</v>
+        <v>4149.2347</v>
       </c>
       <c r="AB7" t="n">
-        <v>20.8369</v>
+        <v>9.085100000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>25.72376</v>
+        <v>22.5792</v>
       </c>
       <c r="AD7" t="n">
-        <v>920.28024</v>
+        <v>3332.2142</v>
       </c>
       <c r="AE7" t="n">
-        <v>3.13914</v>
+        <v>2.9517</v>
       </c>
       <c r="AF7" t="n">
-        <v>62.01542</v>
+        <v>120.4104</v>
       </c>
       <c r="AG7" t="n">
-        <v>3141.8</v>
+        <v>15322.1965</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.7256</v>
+        <v>38.9214</v>
       </c>
       <c r="C8" t="n">
-        <v>168.3372</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>350.8973</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.5549</v>
+      </c>
       <c r="E8" t="n">
-        <v>1084.3168</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>5616.8384</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.3218</v>
+      </c>
       <c r="G8" t="n">
-        <v>2.6784</v>
+        <v>2.7384</v>
       </c>
       <c r="H8" t="n">
-        <v>34.8071</v>
+        <v>74.0582</v>
       </c>
       <c r="I8" t="n">
-        <v>4320.3304</v>
+        <v>15903.1669</v>
       </c>
       <c r="J8" t="n">
-        <v>7.1938</v>
+        <v>6.2442</v>
       </c>
       <c r="K8" t="n">
-        <v>50.9071</v>
+        <v>477.0403</v>
       </c>
       <c r="L8" t="n">
-        <v>8.4968</v>
+        <v>0.7398</v>
       </c>
       <c r="M8" t="n">
-        <v>426.0418</v>
+        <v>303.4492</v>
       </c>
       <c r="N8" t="n">
-        <v>21.549</v>
+        <v>42.0265</v>
       </c>
       <c r="O8" t="n">
-        <v>320.1242</v>
+        <v>1027.1629</v>
       </c>
       <c r="P8" t="n">
-        <v>110.5123</v>
+        <v>578.7628999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>1135.2238</v>
+        <v>6093.8787</v>
       </c>
       <c r="R8" t="n">
-        <v>11.6213</v>
+        <v>21.9603</v>
       </c>
       <c r="S8" t="n">
-        <v>106.0535</v>
+        <v>555.7165</v>
       </c>
       <c r="T8" t="n">
-        <v>5.079</v>
+        <v>83.51909999999999</v>
       </c>
       <c r="U8" t="n">
-        <v>273.2631</v>
+        <v>1377.1873</v>
       </c>
       <c r="V8" t="n">
-        <v>150.5094</v>
+        <v>711.6701</v>
       </c>
       <c r="W8" t="n">
-        <v>29.2019</v>
+        <v>20.3903</v>
       </c>
       <c r="X8" t="n">
-        <v>900.5095</v>
+        <v>4255.8297</v>
       </c>
       <c r="Y8" t="n">
-        <v>164.1774</v>
+        <v>203.312</v>
       </c>
       <c r="Z8" t="n">
-        <v>70.32429999999999</v>
+        <v>306.7472</v>
       </c>
       <c r="AA8" t="n">
-        <v>1164.2131</v>
+        <v>4786.279</v>
       </c>
       <c r="AB8" t="n">
-        <v>20.5282</v>
+        <v>15.2703</v>
       </c>
       <c r="AC8" t="n">
-        <v>30.0969</v>
+        <v>17.7682</v>
       </c>
       <c r="AD8" t="n">
-        <v>1417.6813</v>
+        <v>4490.9367</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.1592</v>
+        <v>5.5478</v>
       </c>
       <c r="AF8" t="n">
-        <v>91.73820000000001</v>
+        <v>121.527</v>
       </c>
       <c r="AG8" t="n">
-        <v>4913.7177</v>
+        <v>18307.517</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.48508</v>
+        <v>38.163</v>
       </c>
       <c r="C9" t="n">
-        <v>180.11248</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>438.79</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.387</v>
+      </c>
       <c r="E9" t="n">
-        <v>1301.46305</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>5514.636</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20.752</v>
+      </c>
       <c r="G9" t="n">
-        <v>1.59933</v>
+        <v>9.44</v>
       </c>
       <c r="H9" t="n">
-        <v>50.92351</v>
+        <v>59.359</v>
       </c>
       <c r="I9" t="n">
-        <v>5025.66721</v>
+        <v>15334.694</v>
       </c>
       <c r="J9" t="n">
-        <v>2.28372</v>
+        <v>7.512</v>
       </c>
       <c r="K9" t="n">
-        <v>54.81829</v>
+        <v>440.467</v>
       </c>
       <c r="L9" t="n">
-        <v>8.03449</v>
+        <v>0.842</v>
       </c>
       <c r="M9" t="n">
-        <v>428.88973</v>
+        <v>283.982</v>
       </c>
       <c r="N9" t="n">
-        <v>14.0609</v>
+        <v>45.381</v>
       </c>
       <c r="O9" t="n">
-        <v>464.98671</v>
+        <v>1223.685</v>
       </c>
       <c r="P9" t="n">
-        <v>239.32825</v>
+        <v>677.965</v>
       </c>
       <c r="Q9" t="n">
-        <v>1356.28134</v>
+        <v>5955.102</v>
       </c>
       <c r="R9" t="n">
-        <v>28.43822</v>
+        <v>27.811</v>
       </c>
       <c r="S9" t="n">
-        <v>135.83733</v>
+        <v>829.206</v>
       </c>
       <c r="T9" t="n">
-        <v>12.74292</v>
+        <v>44.096</v>
       </c>
       <c r="U9" t="n">
-        <v>311.26739</v>
+        <v>3119.58</v>
       </c>
       <c r="V9" t="n">
-        <v>134.24892</v>
+        <v>2197.715</v>
       </c>
       <c r="W9" t="n">
-        <v>32.36194</v>
+        <v>21.831</v>
       </c>
       <c r="X9" t="n">
-        <v>1026.37358</v>
+        <v>4056.984</v>
       </c>
       <c r="Y9" t="n">
-        <v>194.12169</v>
+        <v>191.564</v>
       </c>
       <c r="Z9" t="n">
-        <v>91.30741999999999</v>
+        <v>314.834</v>
       </c>
       <c r="AA9" t="n">
-        <v>1344.16463</v>
+        <v>4585.212</v>
       </c>
       <c r="AB9" t="n">
-        <v>14.12824</v>
+        <v>20.591</v>
       </c>
       <c r="AC9" t="n">
-        <v>36.10265</v>
+        <v>19.831</v>
       </c>
       <c r="AD9" t="n">
-        <v>1678.22269</v>
+        <v>4318.472</v>
       </c>
       <c r="AE9" t="n">
-        <v>2.2107</v>
+        <v>2.797</v>
       </c>
       <c r="AF9" t="n">
-        <v>116.95442</v>
+        <v>92.14400000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>5801.92131</v>
+        <v>19677.9581</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.7</v>
+        <v>21.4844</v>
       </c>
       <c r="C10" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>546.1547</v>
+      </c>
+      <c r="D10" t="n">
+        <v>58.4632</v>
+      </c>
       <c r="E10" t="n">
-        <v>1716.3</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>5715.9359</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17.735</v>
+      </c>
       <c r="G10" t="n">
-        <v>5.2</v>
+        <v>1.9447</v>
       </c>
       <c r="H10" t="n">
-        <v>44</v>
+        <v>29.1068</v>
       </c>
       <c r="I10" t="n">
-        <v>6006.9</v>
+        <v>15846.5272</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>2.7624</v>
       </c>
       <c r="K10" t="n">
-        <v>82.2</v>
+        <v>596.413</v>
       </c>
       <c r="L10" t="n">
-        <v>11.7</v>
+        <v>0.9868</v>
       </c>
       <c r="M10" t="n">
-        <v>553.8</v>
+        <v>196.7408</v>
       </c>
       <c r="N10" t="n">
-        <v>42.1</v>
+        <v>256.3662</v>
       </c>
       <c r="O10" t="n">
-        <v>508.4</v>
+        <v>1647.6055</v>
       </c>
       <c r="P10" t="n">
-        <v>247.3</v>
+        <v>765.1369999999999</v>
       </c>
       <c r="Q10" t="n">
-        <v>1798.4</v>
+        <v>6312.3488</v>
       </c>
       <c r="R10" t="n">
-        <v>24.1</v>
+        <v>28.9765</v>
       </c>
       <c r="S10" t="n">
-        <v>159.9</v>
+        <v>540.4943</v>
       </c>
       <c r="T10" t="n">
-        <v>22.9</v>
+        <v>36.2191</v>
       </c>
       <c r="U10" t="n">
-        <v>419.8</v>
+        <v>1368.9636</v>
       </c>
       <c r="V10" t="n">
-        <v>213</v>
+        <v>745.5386999999999</v>
       </c>
       <c r="W10" t="n">
-        <v>42</v>
+        <v>23.1662</v>
       </c>
       <c r="X10" t="n">
-        <v>1384.7</v>
+        <v>4548.2349</v>
       </c>
       <c r="Y10" t="n">
-        <v>261.9</v>
+        <v>163.8261</v>
       </c>
       <c r="Z10" t="n">
-        <v>137.9</v>
+        <v>310.5732</v>
       </c>
       <c r="AA10" t="n">
-        <v>1826.5</v>
+        <v>5045.8005</v>
       </c>
       <c r="AB10" t="n">
-        <v>24.2</v>
+        <v>7.5853</v>
       </c>
       <c r="AC10" t="n">
-        <v>42.8</v>
+        <v>21.5341</v>
       </c>
       <c r="AD10" t="n">
-        <v>1610.8</v>
+        <v>4154.6389</v>
       </c>
       <c r="AE10" t="n">
-        <v>3.1</v>
+        <v>1.8914</v>
       </c>
       <c r="AF10" t="n">
-        <v>106.5</v>
+        <v>78.77200000000001</v>
       </c>
       <c r="AG10" t="n">
-        <v>6935.2</v>
+        <v>18863.0963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.8468</v>
+        <v>21.1666</v>
       </c>
       <c r="C11" t="n">
-        <v>214.5273</v>
+        <v>744.6801</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.333</v>
+        <v>103.2455</v>
       </c>
       <c r="E11" t="n">
-        <v>2345.6821</v>
+        <v>5198.9124</v>
       </c>
       <c r="F11" t="n">
-        <v>50.4881</v>
+        <v>30.3812</v>
       </c>
       <c r="G11" t="n">
-        <v>5.3844</v>
+        <v>2.1272</v>
       </c>
       <c r="H11" t="n">
-        <v>130.9644</v>
+        <v>19.343</v>
       </c>
       <c r="I11" t="n">
-        <v>7653.0284</v>
+        <v>15651.2193</v>
       </c>
       <c r="J11" t="n">
-        <v>2.6661</v>
+        <v>1.451</v>
       </c>
       <c r="K11" t="n">
-        <v>87.99339999999999</v>
+        <v>642.654</v>
       </c>
       <c r="L11" t="n">
-        <v>10.511</v>
+        <v>1.1892</v>
       </c>
       <c r="M11" t="n">
-        <v>773.0386999999999</v>
+        <v>226.4462</v>
       </c>
       <c r="N11" t="n">
-        <v>11.9571</v>
+        <v>424.6039</v>
       </c>
       <c r="O11" t="n">
-        <v>625.6038</v>
+        <v>2187.9306</v>
       </c>
       <c r="P11" t="n">
-        <v>352.6056</v>
+        <v>894.2344000000001</v>
       </c>
       <c r="Q11" t="n">
-        <v>2433.6755</v>
+        <v>5841.5671</v>
       </c>
       <c r="R11" t="n">
-        <v>22.8932</v>
+        <v>29.9141</v>
       </c>
       <c r="S11" t="n">
-        <v>208.0936</v>
+        <v>624.8532</v>
       </c>
       <c r="T11" t="n">
-        <v>11.1378</v>
+        <v>38.7647</v>
       </c>
       <c r="U11" t="n">
-        <v>627.6591</v>
+        <v>1548.1743</v>
       </c>
       <c r="V11" t="n">
-        <v>335.0464</v>
+        <v>824.2617</v>
       </c>
       <c r="W11" t="n">
-        <v>37.8255</v>
+        <v>22.1528</v>
       </c>
       <c r="X11" t="n">
-        <v>1701.7439</v>
+        <v>4858.3594</v>
       </c>
       <c r="Y11" t="n">
-        <v>257.3257</v>
+        <v>166.8789</v>
       </c>
       <c r="Z11" t="n">
-        <v>139.5773</v>
+        <v>367.1752</v>
       </c>
       <c r="AA11" t="n">
-        <v>2136.4724</v>
+        <v>5414.566</v>
       </c>
       <c r="AB11" t="n">
-        <v>21.3594</v>
+        <v>6.5291</v>
       </c>
       <c r="AC11" t="n">
-        <v>66.34350000000001</v>
+        <v>12.9503</v>
       </c>
       <c r="AD11" t="n">
-        <v>1981.2465</v>
+        <v>4064.6335</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.7979</v>
+        <v>1.762</v>
       </c>
       <c r="AF11" t="n">
-        <v>109.928</v>
+        <v>65.1853</v>
       </c>
       <c r="AG11" t="n">
-        <v>8906.2912</v>
+        <v>19387.3243</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.82915</v>
+        <v>36.7517</v>
       </c>
       <c r="C12" t="n">
-        <v>220.25528</v>
+        <v>715.0173</v>
       </c>
       <c r="D12" t="n">
-        <v>3.61365</v>
+        <v>22.5733</v>
       </c>
       <c r="E12" t="n">
-        <v>2780.09837</v>
+        <v>4469.4921</v>
       </c>
       <c r="F12" t="n">
-        <v>50.29731</v>
+        <v>47.6157</v>
       </c>
       <c r="G12" t="n">
-        <v>5.25749</v>
+        <v>2.7398</v>
       </c>
       <c r="H12" t="n">
-        <v>224.06784</v>
+        <v>24.7576</v>
       </c>
       <c r="I12" t="n">
-        <v>9136.859200000001</v>
+        <v>15651.0861</v>
       </c>
       <c r="J12" t="n">
-        <v>4.87622</v>
+        <v>2.3055</v>
       </c>
       <c r="K12" t="n">
-        <v>102.84953</v>
-      </c>
-      <c r="L12" t="n">
-        <v>10.76759</v>
-      </c>
+        <v>607.5331</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>809.08084</v>
+        <v>660.0242</v>
       </c>
       <c r="N12" t="n">
-        <v>9.23265</v>
+        <v>434.3263</v>
       </c>
       <c r="O12" t="n">
-        <v>630.36046</v>
+        <v>2293.2437</v>
       </c>
       <c r="P12" t="n">
-        <v>369.42973</v>
+        <v>1084.5749</v>
       </c>
       <c r="Q12" t="n">
-        <v>2882.9479</v>
+        <v>5077.0251</v>
       </c>
       <c r="R12" t="n">
-        <v>84.4062</v>
+        <v>30.7187</v>
       </c>
       <c r="S12" t="n">
-        <v>251.70782</v>
+        <v>461.1561</v>
       </c>
       <c r="T12" t="n">
-        <v>24.7687</v>
+        <v>55.7938</v>
       </c>
       <c r="U12" t="n">
-        <v>844.0393</v>
+        <v>1547.0101</v>
       </c>
       <c r="V12" t="n">
-        <v>432.85927</v>
+        <v>951.7254</v>
       </c>
       <c r="W12" t="n">
-        <v>43.35925</v>
+        <v>30.7701</v>
       </c>
       <c r="X12" t="n">
-        <v>2117.94596</v>
+        <v>5408.0271</v>
       </c>
       <c r="Y12" t="n">
-        <v>415.49964</v>
+        <v>202.0678</v>
       </c>
       <c r="Z12" t="n">
-        <v>306.58081</v>
+        <v>424.4979</v>
       </c>
       <c r="AA12" t="n">
-        <v>2883.38566</v>
+        <v>6065.3626</v>
       </c>
       <c r="AB12" t="n">
-        <v>23.89277</v>
+        <v>5.5386</v>
       </c>
       <c r="AC12" t="n">
-        <v>60.29935</v>
+        <v>36.0146</v>
       </c>
       <c r="AD12" t="n">
-        <v>2122.52726</v>
+        <v>3716.5173</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.99147</v>
+        <v>0.4846</v>
       </c>
       <c r="AF12" t="n">
-        <v>130.65758</v>
+        <v>65.84690000000001</v>
       </c>
       <c r="AG12" t="n">
-        <v>10611.25896</v>
+        <v>19491.3395</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.96747</v>
+        <v>20.7706</v>
       </c>
       <c r="C13" t="n">
-        <v>258.53445</v>
+        <v>745.4093</v>
       </c>
       <c r="D13" t="n">
-        <v>2.38327</v>
+        <v>40.388</v>
       </c>
       <c r="E13" t="n">
-        <v>3710.47413</v>
+        <v>4783.8609</v>
       </c>
       <c r="F13" t="n">
-        <v>55.04599</v>
+        <v>24.5308</v>
       </c>
       <c r="G13" t="n">
-        <v>1.90075</v>
+        <v>2.3866</v>
       </c>
       <c r="H13" t="n">
-        <v>90.38718</v>
+        <v>22.7279</v>
       </c>
       <c r="I13" t="n">
-        <v>10741.29947</v>
+        <v>16226.0665</v>
       </c>
       <c r="J13" t="n">
-        <v>3.17645</v>
+        <v>2.1821</v>
       </c>
       <c r="K13" t="n">
-        <v>275.9152</v>
+        <v>691.5005</v>
       </c>
       <c r="L13" t="n">
-        <v>1.83831</v>
+        <v>6.1763</v>
       </c>
       <c r="M13" t="n">
-        <v>351.331</v>
+        <v>546.4292</v>
       </c>
       <c r="N13" t="n">
-        <v>25.0248</v>
+        <v>268.9662</v>
       </c>
       <c r="O13" t="n">
-        <v>740.20546</v>
+        <v>2362.535</v>
       </c>
       <c r="P13" t="n">
-        <v>426.29547</v>
+        <v>1287.0009</v>
       </c>
       <c r="Q13" t="n">
-        <v>3986.38933</v>
+        <v>5475.3614</v>
       </c>
       <c r="R13" t="n">
-        <v>19.88978</v>
+        <v>25.8954</v>
       </c>
       <c r="S13" t="n">
-        <v>285.0271</v>
+        <v>448.8619</v>
       </c>
       <c r="T13" t="n">
-        <v>63.90891</v>
+        <v>164.7069</v>
       </c>
       <c r="U13" t="n">
-        <v>960.47963</v>
+        <v>1627.0166</v>
       </c>
       <c r="V13" t="n">
-        <v>536.60785</v>
+        <v>963.0214999999999</v>
       </c>
       <c r="W13" t="n">
-        <v>19.13074</v>
+        <v>82.4053</v>
       </c>
       <c r="X13" t="n">
-        <v>3041.25946</v>
+        <v>5640.7162</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.49449</v>
+        <v>242.6837</v>
       </c>
       <c r="Z13" t="n">
-        <v>243.85207</v>
+        <v>641.8002</v>
       </c>
       <c r="AA13" t="n">
-        <v>3490.73676</v>
+        <v>6607.6054</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.05606</v>
+        <v>11.2884</v>
       </c>
       <c r="AC13" t="n">
-        <v>19.11654</v>
+        <v>22.9291</v>
       </c>
       <c r="AD13" t="n">
-        <v>2672.13249</v>
+        <v>3478.2865</v>
       </c>
       <c r="AE13" t="n">
-        <v>3.14055</v>
+        <v>0.5434</v>
       </c>
       <c r="AF13" t="n">
-        <v>121.15011</v>
+        <v>61.4387</v>
       </c>
       <c r="AG13" t="n">
-        <v>12441.9846</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>24.13145</v>
-      </c>
-      <c r="C14" t="n">
-        <v>278.67935</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.83484</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4968.91022</v>
-      </c>
-      <c r="F14" t="n">
-        <v>43.86674</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.31412</v>
-      </c>
-      <c r="H14" t="n">
-        <v>82.61239</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12636.0232</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.54033</v>
-      </c>
-      <c r="K14" t="n">
-        <v>329.94358</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.87984</v>
-      </c>
-      <c r="M14" t="n">
-        <v>399.65908</v>
-      </c>
-      <c r="N14" t="n">
-        <v>24.17349</v>
-      </c>
-      <c r="O14" t="n">
-        <v>832.05893</v>
-      </c>
-      <c r="P14" t="n">
-        <v>502.2398</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5298.8538</v>
-      </c>
-      <c r="R14" t="n">
-        <v>23.01403</v>
-      </c>
-      <c r="S14" t="n">
-        <v>353.20005</v>
-      </c>
-      <c r="T14" t="n">
-        <v>54.17114</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1082.40733</v>
-      </c>
-      <c r="V14" t="n">
-        <v>608.1553699999999</v>
-      </c>
-      <c r="W14" t="n">
-        <v>19.84065</v>
-      </c>
-      <c r="X14" t="n">
-        <v>3415.57854</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>200.37528</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>242.90117</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>3878.69564</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>8.696949999999999</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>20.17408</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>2820.86709</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>2.96266</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>126.46417</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>14550.4895</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>19.9745</v>
-      </c>
-      <c r="C15" t="n">
-        <v>322.6129</v>
-      </c>
-      <c r="D15" t="n">
-        <v>12.6102</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4897.0131</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.8124</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.9458</v>
-      </c>
-      <c r="H15" t="n">
-        <v>89.2256</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13307.8406</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.4861</v>
-      </c>
-      <c r="K15" t="n">
-        <v>339.7987</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.7014</v>
-      </c>
-      <c r="M15" t="n">
-        <v>348.2802</v>
-      </c>
-      <c r="N15" t="n">
-        <v>22.5505</v>
-      </c>
-      <c r="O15" t="n">
-        <v>894.0235</v>
-      </c>
-      <c r="P15" t="n">
-        <v>516.2751</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5236.812</v>
-      </c>
-      <c r="R15" t="n">
-        <v>14.8386</v>
-      </c>
-      <c r="S15" t="n">
-        <v>413.1558</v>
-      </c>
-      <c r="T15" t="n">
-        <v>71.4658</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1120.3326</v>
-      </c>
-      <c r="V15" t="n">
-        <v>618.0599999999999</v>
-      </c>
-      <c r="W15" t="n">
-        <v>21.0554</v>
-      </c>
-      <c r="X15" t="n">
-        <v>3664.8972</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>228.8588</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>234.4238</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>4149.2347</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>9.085100000000001</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>22.5792</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>3332.2142</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>2.9517</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>120.4104</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>15322.1965</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>38.9214</v>
-      </c>
-      <c r="C16" t="n">
-        <v>350.8973</v>
-      </c>
-      <c r="D16" t="n">
-        <v>16.5549</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5616.8384</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4.3218</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.7384</v>
-      </c>
-      <c r="H16" t="n">
-        <v>74.0582</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15903.1669</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6.2442</v>
-      </c>
-      <c r="K16" t="n">
-        <v>477.0403</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.7398</v>
-      </c>
-      <c r="M16" t="n">
-        <v>303.4492</v>
-      </c>
-      <c r="N16" t="n">
-        <v>42.0265</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1027.1629</v>
-      </c>
-      <c r="P16" t="n">
-        <v>578.7628999999999</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>6093.8787</v>
-      </c>
-      <c r="R16" t="n">
-        <v>21.9603</v>
-      </c>
-      <c r="S16" t="n">
-        <v>555.7165</v>
-      </c>
-      <c r="T16" t="n">
-        <v>83.51909999999999</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1377.1873</v>
-      </c>
-      <c r="V16" t="n">
-        <v>711.6701</v>
-      </c>
-      <c r="W16" t="n">
-        <v>20.3903</v>
-      </c>
-      <c r="X16" t="n">
-        <v>4255.8297</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>203.312</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>306.7472</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>4786.279</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>15.2703</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>17.7682</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>4490.9367</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>5.5478</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>121.527</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>18307.517</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>38.163</v>
-      </c>
-      <c r="C17" t="n">
-        <v>438.79</v>
-      </c>
-      <c r="D17" t="n">
-        <v>23.387</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5514.636</v>
-      </c>
-      <c r="F17" t="n">
-        <v>20.752</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="H17" t="n">
-        <v>59.359</v>
-      </c>
-      <c r="I17" t="n">
-        <v>15334.694</v>
-      </c>
-      <c r="J17" t="n">
-        <v>7.512</v>
-      </c>
-      <c r="K17" t="n">
-        <v>440.467</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="M17" t="n">
-        <v>283.982</v>
-      </c>
-      <c r="N17" t="n">
-        <v>45.381</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1223.685</v>
-      </c>
-      <c r="P17" t="n">
-        <v>677.965</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5955.102</v>
-      </c>
-      <c r="R17" t="n">
-        <v>27.811</v>
-      </c>
-      <c r="S17" t="n">
-        <v>829.206</v>
-      </c>
-      <c r="T17" t="n">
-        <v>44.096</v>
-      </c>
-      <c r="U17" t="n">
-        <v>3119.58</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2197.715</v>
-      </c>
-      <c r="W17" t="n">
-        <v>21.831</v>
-      </c>
-      <c r="X17" t="n">
-        <v>4056.984</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>191.564</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>314.834</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>4585.212</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>20.591</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>19.831</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>4318.472</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>2.797</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>92.14400000000001</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>19677.9581</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>21.4844</v>
-      </c>
-      <c r="C18" t="n">
-        <v>546.1547</v>
-      </c>
-      <c r="D18" t="n">
-        <v>58.4632</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5715.9359</v>
-      </c>
-      <c r="F18" t="n">
-        <v>17.735</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.9447</v>
-      </c>
-      <c r="H18" t="n">
-        <v>29.1068</v>
-      </c>
-      <c r="I18" t="n">
-        <v>15846.5272</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.7624</v>
-      </c>
-      <c r="K18" t="n">
-        <v>596.413</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.9868</v>
-      </c>
-      <c r="M18" t="n">
-        <v>196.7408</v>
-      </c>
-      <c r="N18" t="n">
-        <v>256.3662</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1647.6055</v>
-      </c>
-      <c r="P18" t="n">
-        <v>765.1369999999999</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>6312.3488</v>
-      </c>
-      <c r="R18" t="n">
-        <v>28.9765</v>
-      </c>
-      <c r="S18" t="n">
-        <v>540.4943</v>
-      </c>
-      <c r="T18" t="n">
-        <v>36.2191</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1368.9636</v>
-      </c>
-      <c r="V18" t="n">
-        <v>745.5386999999999</v>
-      </c>
-      <c r="W18" t="n">
-        <v>23.1662</v>
-      </c>
-      <c r="X18" t="n">
-        <v>4548.2349</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>163.8261</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>310.5732</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>5045.8005</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>7.5853</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>21.5341</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>4154.6389</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1.8914</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>78.77200000000001</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>18863.0963</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>21.1666</v>
-      </c>
-      <c r="C19" t="n">
-        <v>744.6801</v>
-      </c>
-      <c r="D19" t="n">
-        <v>103.2455</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5198.9124</v>
-      </c>
-      <c r="F19" t="n">
-        <v>30.3812</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.1272</v>
-      </c>
-      <c r="H19" t="n">
-        <v>19.343</v>
-      </c>
-      <c r="I19" t="n">
-        <v>15651.2193</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.451</v>
-      </c>
-      <c r="K19" t="n">
-        <v>642.654</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.1892</v>
-      </c>
-      <c r="M19" t="n">
-        <v>226.4462</v>
-      </c>
-      <c r="N19" t="n">
-        <v>424.6039</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2187.9306</v>
-      </c>
-      <c r="P19" t="n">
-        <v>894.2344000000001</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5841.5671</v>
-      </c>
-      <c r="R19" t="n">
-        <v>29.9141</v>
-      </c>
-      <c r="S19" t="n">
-        <v>624.8532</v>
-      </c>
-      <c r="T19" t="n">
-        <v>38.7647</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1548.1743</v>
-      </c>
-      <c r="V19" t="n">
-        <v>824.2617</v>
-      </c>
-      <c r="W19" t="n">
-        <v>22.1528</v>
-      </c>
-      <c r="X19" t="n">
-        <v>4858.3594</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>166.8789</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>367.1752</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>5414.566</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>6.5291</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>12.9503</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>4064.6335</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>65.1853</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>19387.3243</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>36.7517</v>
-      </c>
-      <c r="C20" t="n">
-        <v>715.0173</v>
-      </c>
-      <c r="D20" t="n">
-        <v>22.5733</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4469.4921</v>
-      </c>
-      <c r="F20" t="n">
-        <v>47.6157</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.7398</v>
-      </c>
-      <c r="H20" t="n">
-        <v>24.7576</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15651.0861</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.3055</v>
-      </c>
-      <c r="K20" t="n">
-        <v>607.5331</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>660.0242</v>
-      </c>
-      <c r="N20" t="n">
-        <v>434.3263</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2293.2437</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1084.5749</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5077.0251</v>
-      </c>
-      <c r="R20" t="n">
-        <v>30.7187</v>
-      </c>
-      <c r="S20" t="n">
-        <v>461.1561</v>
-      </c>
-      <c r="T20" t="n">
-        <v>55.7938</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1547.0101</v>
-      </c>
-      <c r="V20" t="n">
-        <v>951.7254</v>
-      </c>
-      <c r="W20" t="n">
-        <v>30.7701</v>
-      </c>
-      <c r="X20" t="n">
-        <v>5408.0271</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>202.0678</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>424.4979</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>6065.3626</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>5.5386</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>36.0146</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>3716.5173</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0.4846</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>65.84690000000001</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>19491.3395</v>
+        <v>20215.6181</v>
       </c>
     </row>
   </sheetData>
